--- a/kiwi.xlsx
+++ b/kiwi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,26 +494,6 @@
           <t>tenant_uuid</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>status_clean</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>enabled_clean</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -572,26 +552,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>KIWI_5CF420</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -648,26 +608,6 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>KIWI_B9FB0F</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
         </is>
       </c>
     </row>
@@ -724,26 +664,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>KIWI_986C24</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -802,26 +722,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>KIWI_806220</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -878,26 +778,6 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>9bf18987-40d3-411a-9118-d849efa9327c</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>KIWI_B8BB20</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
         </is>
       </c>
     </row>
@@ -954,26 +834,6 @@
           <t>edf19151-34fa-4385-878a-b725d8450763</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>KIWI_FECBAA</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1028,26 +888,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>KIWI_9C4F22</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1102,26 +942,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>KIWI_4C5022</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1176,26 +996,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>KIWI_D4F020</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1250,26 +1050,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>KIWI_D85B21</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1324,26 +1104,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>KIWI_28C625</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1398,26 +1158,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>KIWI_244121</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1476,26 +1216,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>KIWI_5DF20F</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1554,26 +1274,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>KIWI_BC6327</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1632,26 +1332,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>KIWI_C0E320</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1710,26 +1390,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>KIWI_843420</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1788,26 +1448,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>KIWI_70EE20</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1858,26 +1498,6 @@
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>KIWI_C85210</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1932,26 +1552,6 @@
           <t>edf19151-34fa-4385-878a-b725d8450763</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>KIWI_D5E0F0</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2010,26 +1610,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>KIWI_907120</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2088,26 +1668,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>KIWI_386427</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2158,26 +1718,6 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>KIWI_84269F</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2236,26 +1776,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>KIWI_A82122</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2314,26 +1834,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>KIWI_FC1821</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2384,26 +1884,6 @@
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>KIWI_B03424</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2454,26 +1934,6 @@
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>KIWI_3C5724</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2532,26 +1992,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>KIWI_604B24</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2610,26 +2050,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>KIWI_38F620</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2688,26 +2108,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>KIWI_3C4C22</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2766,26 +2166,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>KIWI_704021</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2844,26 +2224,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>KIWI_20EB20</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2922,26 +2282,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>KIWI_683321</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3000,26 +2340,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>KIWI_D8B210</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3078,26 +2398,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>KIWI_74C270</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3156,26 +2456,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>KIWI_412210</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3234,26 +2514,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>KIWI_8C8C9F</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3312,26 +2572,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>KIWI_D9F6F0</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3390,26 +2630,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>KIWI_F01522</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3468,26 +2688,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>KIWI_B08520</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3546,26 +2746,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>KIWI_E89026</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3624,26 +2804,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>KIWI_5C3A22</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3702,26 +2862,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>KIWI_7C269F</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3780,26 +2920,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>KIWI_A45724</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3858,26 +2978,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>KIWI_802210</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3936,26 +3036,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>KIWI_5CFF20</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4014,26 +3094,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>KIWI_5BAF00</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4092,26 +3152,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>KIWI_644D22</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4170,26 +3210,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>KIWI_6C7120</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4248,26 +3268,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>KIWI_D47B20</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4326,26 +3326,6 @@
           <t>edf19151-34fa-4385-878a-b725d8450763</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>KIWI_F07525</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4404,26 +3384,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>KIWI_942A21</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4482,26 +3442,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>KIWI_840400</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4560,26 +3500,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>KIWI_E85400</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4638,26 +3558,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>KIWI_C43520</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4716,26 +3616,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>KIWI_34D130</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4794,26 +3674,6 @@
           <t>90be8c8a-f462-4a3e-afcf-d8f34094eaa8</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>KIWI_8C2A40</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4872,26 +3732,6 @@
           <t>edf19151-34fa-4385-878a-b725d8450763</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>KIWI_B4FF30</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4948,26 +3788,6 @@
       <c r="L59" t="inlineStr">
         <is>
           <t>edf19151-34fa-4385-878a-b725d8450763</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>KIWI_48FE30</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
         </is>
       </c>
     </row>
@@ -5012,26 +3832,6 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>KIWI_AC8740</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5084,26 +3884,6 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>KIWI_E04640</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5156,26 +3936,6 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>KIWI_D41300</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5236,26 +3996,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>KIWI_54DF30</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5314,26 +4054,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>KIWI_60D130</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5392,26 +4112,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>KIWI_D86540</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5472,26 +4172,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>KIWI_07B100</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5548,26 +4228,6 @@
       <c r="L67" t="inlineStr">
         <is>
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>KIWI_FC1CD6</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
         </is>
       </c>
     </row>
@@ -5612,26 +4272,6 @@
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>KIWI_091400</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5690,26 +4330,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>KIWI_5C9640</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5768,26 +4388,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>KIWI_243400</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5846,26 +4446,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>KIWI_705D40</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5924,26 +4504,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>KIWI_30B300</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6002,26 +4562,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>KIWI_DCBB00</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6080,26 +4620,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>KIWI_FC6A10</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6158,26 +4678,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>KIWI_70E610</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6236,26 +4736,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>KIWI_E05400</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6316,26 +4796,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>KIWI_70C83F</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6396,26 +4856,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>KIWI_30408D</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6476,26 +4916,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>KIWI_543C8D</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6556,26 +4976,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>KIWI_C3B130</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6636,26 +5036,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>KIWI_64AC3F</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6716,26 +5096,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>KIWI_70C13F</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6796,26 +5156,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>KIWI_C06D40</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6876,26 +5216,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>KIWI_34408D</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6956,26 +5276,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>KIWI_AC3C8D</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7036,26 +5336,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>KIWI_943D13</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7116,26 +5396,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>KIWI_781D13</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7196,26 +5456,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>KIWI_A83A40</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7276,26 +5516,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>KIWI_2C6E40</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7356,26 +5576,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>KIWI_803D8D</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7436,26 +5636,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>KIWI_F0953F</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7516,26 +5696,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>KIWI_C4E23F</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7596,26 +5756,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>KIWI_E81913</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7676,26 +5816,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>KIWI_703D13</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7756,26 +5876,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>KIWI_A83D13</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7836,26 +5936,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>KIWI_543D13</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7916,26 +5996,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>KIWI_9C3C8D</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7996,26 +6056,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>KIWI_54CE3F</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8068,26 +6108,6 @@
       </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>KIWI_A33D13</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8140,26 +6160,6 @@
       </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>KIWI_CF3A40</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8212,26 +6212,6 @@
       </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>KIWI_B76840</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8284,26 +6264,6 @@
       </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>KIWI_AF1B40</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8364,26 +6324,6 @@
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>KIWI_98A6F7</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8440,26 +6380,6 @@
       <c r="L104" t="inlineStr">
         <is>
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>KIWI_ECA93F</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
         </is>
       </c>
     </row>
@@ -8504,26 +6424,6 @@
       </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>KIWI_70269F</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8580,26 +6480,6 @@
       <c r="L106" t="inlineStr">
         <is>
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>KIWI_3DF60F</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
         </is>
       </c>
     </row>
@@ -8644,26 +6524,6 @@
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>KIWI_703022</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>Desconectado</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8720,26 +6580,6 @@
       <c r="L108" t="inlineStr">
         <is>
           <t>54da349f-b026-4e4c-a571-2efe9eb644ed</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>KIWI_182120</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>Conectado</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>Habilitado</t>
         </is>
       </c>
     </row>
